--- a/web-app/spreadsheet/LIPPINCOTT_Bulkload_Schematic.xlsx
+++ b/web-app/spreadsheet/LIPPINCOTT_Bulkload_Schematic.xlsx
@@ -9,7 +9,6 @@
   <sheets>
     <sheet name="Lipp" sheetId="2" r:id="rId1"/>
     <sheet name="Dept" sheetId="6" r:id="rId2"/>
-    <sheet name="Sheet6" sheetId="9" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="CDMService">#REF!</definedName>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="294">
   <si>
     <t>Consultation Mode</t>
   </si>
@@ -871,6 +870,42 @@
   </si>
   <si>
     <t>Consultation EXCEL Submission Form - LIPPINCOTT</t>
+  </si>
+  <si>
+    <t>Sponsor</t>
+  </si>
+  <si>
+    <t>Wharton</t>
+  </si>
+  <si>
+    <t>Vet</t>
+  </si>
+  <si>
+    <t>Nursing</t>
+  </si>
+  <si>
+    <t>Med</t>
+  </si>
+  <si>
+    <t>Dental</t>
+  </si>
+  <si>
+    <t>SP2</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>Annenberg</t>
+  </si>
+  <si>
+    <t>Law</t>
+  </si>
+  <si>
+    <t>Coursera</t>
+  </si>
+  <si>
+    <t>Independent Research</t>
   </si>
 </sst>
 </file>
@@ -1078,10 +1113,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1385,8 +1420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -1443,7 +1478,7 @@
       <c r="B8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="26" t="s">
         <v>26</v>
       </c>
       <c r="T8" s="1" t="s">
@@ -1527,7 +1562,7 @@
       <c r="B20" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="25" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1551,7 +1586,7 @@
       <c r="B26" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="25" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1604,9 +1639,7 @@
       <c r="B36" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="C36" s="10"/>
     </row>
     <row r="37" spans="2:3" s="1" customFormat="1" ht="15">
       <c r="B37" s="6"/>
@@ -1629,7 +1662,7 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="7">
+  <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Report type" prompt="Report type" sqref="E3">
       <formula1>"cd, de, ef"</formula1>
     </dataValidation>
@@ -1649,18 +1682,34 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C30">
       <formula1>DeptList</formula1>
     </dataValidation>
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Dept!$G$3:$G$16</xm:f>
+          </x14:formula1>
+          <xm:sqref>C36</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F223"/>
+  <dimension ref="B2:G223"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F10"/>
+      <selection activeCell="G2" sqref="G2:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1671,7 +1720,7 @@
     <col min="6" max="6" width="26.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" s="16" customFormat="1" ht="15.75" thickBot="1">
+    <row r="2" spans="2:7" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="B2" s="16" t="s">
         <v>272</v>
       </c>
@@ -1684,8 +1733,11 @@
       <c r="F2" s="16" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" ht="16.5" thickBot="1">
+      <c r="G2" s="16" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="16.5" thickBot="1">
       <c r="B3" s="14" t="s">
         <v>32</v>
       </c>
@@ -1698,8 +1750,11 @@
       <c r="F3" s="19" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" ht="16.5" thickBot="1">
+      <c r="G3" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="16.5" thickBot="1">
       <c r="B4" s="15" t="s">
         <v>33</v>
       </c>
@@ -1712,8 +1767,11 @@
       <c r="F4" s="19" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" ht="16.5" thickBot="1">
+      <c r="G4" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="16.5" thickBot="1">
       <c r="B5" s="15" t="s">
         <v>34</v>
       </c>
@@ -1726,8 +1784,11 @@
       <c r="F5" s="19" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" ht="16.5" thickBot="1">
+      <c r="G5" s="19" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="16.5" thickBot="1">
       <c r="B6" s="15" t="s">
         <v>35</v>
       </c>
@@ -1740,8 +1801,11 @@
       <c r="F6" s="19" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" ht="16.5" thickBot="1">
+      <c r="G6" s="19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="16.5" thickBot="1">
       <c r="B7" s="15" t="s">
         <v>36</v>
       </c>
@@ -1754,8 +1818,11 @@
       <c r="F7" s="19" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" ht="16.5" thickBot="1">
+      <c r="G7" s="19" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="16.5" thickBot="1">
       <c r="B8" s="15" t="s">
         <v>37</v>
       </c>
@@ -1768,8 +1835,11 @@
       <c r="F8" s="19" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" ht="16.5" thickBot="1">
+      <c r="G8" s="19" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="16.5" thickBot="1">
       <c r="B9" s="15" t="s">
         <v>38</v>
       </c>
@@ -1780,8 +1850,11 @@
       <c r="F9" s="19" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" ht="16.5" thickBot="1">
+      <c r="G9" s="19" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="16.5" thickBot="1">
       <c r="B10" s="15" t="s">
         <v>39</v>
       </c>
@@ -1791,44 +1864,65 @@
       <c r="F10" s="19" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" ht="16.5" thickBot="1">
+      <c r="G10" s="19" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="16.5" thickBot="1">
       <c r="B11" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" ht="16.5" thickBot="1">
+      <c r="G11" s="19" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="16.5" thickBot="1">
       <c r="B12" s="15" t="s">
         <v>41</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="13" spans="2:6" ht="16.5" thickBot="1">
+      <c r="G12" s="19" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="16.5" thickBot="1">
       <c r="B13" s="15" t="s">
         <v>42</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="14" spans="2:6" ht="16.5" thickBot="1">
+      <c r="G13" s="19" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="16.5" thickBot="1">
       <c r="B14" s="15" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="15" spans="2:6" ht="16.5" thickBot="1">
+      <c r="G14" s="19" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="16.5" thickBot="1">
       <c r="B15" s="15" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="16" spans="2:6" ht="16.5" thickBot="1">
+      <c r="G15" s="19" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="16.5" thickBot="1">
       <c r="B16" s="15" t="s">
         <v>45</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="16.5" thickBot="1">
@@ -2870,16 +2964,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>